--- a/Courses.xlsx
+++ b/Courses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doual01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doual01\Desktop\Git Test\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Featured Learning</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Finish Date</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,10 +551,22 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
